--- a/src/assets/excell/business.xlsx
+++ b/src/assets/excell/business.xlsx
@@ -1,13 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8E279C-C23F-4948-8FF7-949329E93B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>شهر</t>
   </si>
@@ -36,12 +38,6 @@
     <t>نام کسب و کار</t>
   </si>
   <si>
-    <t>دسته بندی کسب و کار</t>
-  </si>
-  <si>
-    <t>نام کارفرما</t>
-  </si>
-  <si>
     <t>نوع کارفرما</t>
   </si>
   <si>
@@ -52,12 +48,48 @@
   </si>
   <si>
     <t>شماره پروانه کسب</t>
+  </si>
+  <si>
+    <t>شهر2</t>
+  </si>
+  <si>
+    <t>آدرس2</t>
+  </si>
+  <si>
+    <t>کدپستی2</t>
+  </si>
+  <si>
+    <t>تلفن2</t>
+  </si>
+  <si>
+    <t>شهر3</t>
+  </si>
+  <si>
+    <t>آدرس3</t>
+  </si>
+  <si>
+    <t>کدپستی3</t>
+  </si>
+  <si>
+    <t>تلفن3</t>
+  </si>
+  <si>
+    <t>شناسه دسته بندی کسب و کار</t>
+  </si>
+  <si>
+    <t>کد ملی کارفرما</t>
+  </si>
+  <si>
+    <t>حقیقی</t>
+  </si>
+  <si>
+    <t>حقوقی</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -107,11 +139,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -392,50 +428,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD1001"/>
+      <selection activeCell="G1" sqref="E1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="14" style="3" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" customWidth="1"/>
-    <col min="8" max="8" width="4.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" customWidth="1"/>
     <col min="9" max="9" width="9.140625" customWidth="1"/>
     <col min="10" max="10" width="12.7109375" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="7" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" customWidth="1"/>
+    <col min="19" max="19" width="10.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>0</v>
@@ -446,13 +490,74 @@
       <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{654C9DF4-11E6-45FF-A0B8-36EEBDED1350}">
+          <x14:formula1>
+            <xm:f>data!A2:A3</xm:f>
+          </x14:formula1>
+          <xm:sqref>D1:D1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C706B317-ADDE-43F8-B162-DE5EA1D79CAE}">
+  <dimension ref="A2:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/assets/excell/business.xlsx
+++ b/src/assets/excell/business.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8E279C-C23F-4948-8FF7-949329E93B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373C28C2-0AF0-480B-93DC-904B92DB63A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4080" yWindow="1650" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>شهر</t>
   </si>
@@ -433,7 +433,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="E1:G1048576"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,18 +518,28 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{654C9DF4-11E6-45FF-A0B8-36EEBDED1350}">
           <x14:formula1>
             <xm:f>data!A2:A3</xm:f>
           </x14:formula1>
-          <xm:sqref>D1:D1048576</xm:sqref>
+          <xm:sqref>D1 D3:D1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EBE15127-1ACE-445F-B6BB-F62D8329414A}">
+          <x14:formula1>
+            <xm:f>data!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -542,7 +552,7 @@
   <dimension ref="A2:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
